--- a/ResultsNN.xlsx
+++ b/ResultsNN.xlsx
@@ -1,38 +1,34 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\carlo\OneDrive\Escritorio\AE-II\GIThub\Fatigue-Life-Analysis-Composites\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CBC55BBC-2ED2-4951-B9BE-BB8302968B18}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <workbookProtection/>
   <bookViews>
-    <workbookView xWindow="-396" yWindow="2328" windowWidth="17280" windowHeight="8880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <definedNames/>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="0"/>
+  <fonts count="1">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <color theme="1"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill patternType="none"/>
+      <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -51,21 +47,80 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -353,182 +408,106 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H18"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H4"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="D11" sqref="D11:D15"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A1">
-        <v>7702.0380549953434</v>
-      </c>
-      <c r="B1">
+    <row r="1">
+      <c r="A1" t="n">
+        <v>7702.038054995343</v>
+      </c>
+      <c r="B1" t="n">
         <v>2815.48001037934</v>
       </c>
-      <c r="C1">
-        <v>1</v>
-      </c>
-      <c r="D1">
-        <v>1</v>
-      </c>
-      <c r="E1">
-        <v>1</v>
-      </c>
-      <c r="F1">
-        <v>1</v>
-      </c>
+      <c r="C1" t="n">
+        <v>1</v>
+      </c>
+      <c r="D1" t="n">
+        <v>1</v>
+      </c>
+      <c r="E1" t="n">
+        <v>1</v>
+      </c>
+      <c r="F1" t="n">
+        <v>1</v>
+      </c>
+      <c r="G1" t="inlineStr"/>
+      <c r="H1" t="inlineStr"/>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A2">
-        <v>1</v>
-      </c>
-      <c r="B2">
-        <v>1</v>
-      </c>
-      <c r="C2">
-        <v>1</v>
-      </c>
-      <c r="D2">
+    <row r="2">
+      <c r="A2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B2" t="n">
+        <v>1</v>
+      </c>
+      <c r="C2" t="n">
+        <v>1</v>
+      </c>
+      <c r="D2" t="n">
         <v>250.6355779751751</v>
       </c>
-      <c r="E2">
-        <v>893.36887046376864</v>
-      </c>
+      <c r="E2" t="n">
+        <v>893.3688704637686</v>
+      </c>
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr"/>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A3">
-        <v>152008.24768624359</v>
-      </c>
-      <c r="B3">
+    <row r="3">
+      <c r="A3" t="n">
+        <v>152008.2476862436</v>
+      </c>
+      <c r="B3" t="n">
         <v>108494.6841716605</v>
       </c>
-      <c r="C3">
+      <c r="C3" t="n">
         <v>116404.3089937633</v>
       </c>
-      <c r="D3">
-        <v>201467.07711990719</v>
-      </c>
-      <c r="E3">
-        <v>167848.98234796891</v>
-      </c>
-      <c r="F3">
+      <c r="D3" t="n">
+        <v>201467.0771199072</v>
+      </c>
+      <c r="E3" t="n">
+        <v>167848.9823479689</v>
+      </c>
+      <c r="F3" t="n">
         <v>194201.3323416269</v>
       </c>
-      <c r="G3">
-        <v>180076.60097590741</v>
-      </c>
-      <c r="H3">
-        <v>191875.09880847231</v>
+      <c r="G3" t="n">
+        <v>180076.6009759074</v>
+      </c>
+      <c r="H3" t="n">
+        <v>191875.0988084723</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A4">
+    <row r="4">
+      <c r="A4" t="n">
         <v>20321.48368349356</v>
       </c>
-      <c r="B4">
-        <v>17588.291899200482</v>
-      </c>
-      <c r="C4">
-        <v>14633.784278325091</v>
-      </c>
-      <c r="D4">
-        <v>8172.7875749268997</v>
-      </c>
-      <c r="E4">
-        <v>7864.3807608533407</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A11">
-        <v>7702.0380549953434</v>
-      </c>
-      <c r="B11">
-        <v>1</v>
-      </c>
-      <c r="C11">
-        <v>152008.24768624359</v>
-      </c>
-      <c r="D11">
-        <v>20321.48368349356</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A12">
-        <v>2815.48001037934</v>
-      </c>
-      <c r="B12">
-        <v>1</v>
-      </c>
-      <c r="C12">
-        <v>108494.6841716605</v>
-      </c>
-      <c r="D12">
-        <v>17588.291899200482</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A13">
-        <v>1</v>
-      </c>
-      <c r="B13">
-        <v>1</v>
-      </c>
-      <c r="C13">
-        <v>116404.3089937633</v>
-      </c>
-      <c r="D13">
-        <v>14633.784278325091</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A14">
-        <v>1</v>
-      </c>
-      <c r="B14">
-        <v>250.6355779751751</v>
-      </c>
-      <c r="C14">
-        <v>201467.07711990719</v>
-      </c>
-      <c r="D14">
-        <v>8172.7875749268997</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A15">
-        <v>1</v>
-      </c>
-      <c r="B15">
-        <v>893.36887046376864</v>
-      </c>
-      <c r="C15">
-        <v>167848.98234796891</v>
-      </c>
-      <c r="D15">
-        <v>7864.3807608533407</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A16">
-        <v>1</v>
-      </c>
-      <c r="C16">
-        <v>194201.3323416269</v>
-      </c>
-    </row>
-    <row r="17" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C17">
-        <v>180076.60097590741</v>
-      </c>
-    </row>
-    <row r="18" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C18">
-        <v>191875.09880847231</v>
-      </c>
+      <c r="B4" t="n">
+        <v>17588.29189920048</v>
+      </c>
+      <c r="C4" t="n">
+        <v>14633.78427832509</v>
+      </c>
+      <c r="D4" t="n">
+        <v>8172.7875749269</v>
+      </c>
+      <c r="E4" t="n">
+        <v>7864.380760853341</v>
+      </c>
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/ResultsNN.xlsx
+++ b/ResultsNN.xlsx
@@ -423,10 +423,10 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="n">
-        <v>7702.038054995343</v>
+        <v>8993.224771567593</v>
       </c>
       <c r="B1" t="n">
-        <v>2815.48001037934</v>
+        <v>1</v>
       </c>
       <c r="C1" t="n">
         <v>1</v>
@@ -445,19 +445,19 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>1</v>
+        <v>358.7890503447332</v>
       </c>
       <c r="B2" t="n">
-        <v>1</v>
+        <v>1007.952523005518</v>
       </c>
       <c r="C2" t="n">
-        <v>1</v>
+        <v>1008.234970042484</v>
       </c>
       <c r="D2" t="n">
-        <v>250.6355779751751</v>
+        <v>1481.569395171177</v>
       </c>
       <c r="E2" t="n">
-        <v>893.3688704637686</v>
+        <v>2289.756995706581</v>
       </c>
       <c r="F2" t="inlineStr"/>
       <c r="G2" t="inlineStr"/>
@@ -465,45 +465,45 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>152008.2476862436</v>
+        <v>184313.6543862924</v>
       </c>
       <c r="B3" t="n">
-        <v>108494.6841716605</v>
+        <v>126423.9451206766</v>
       </c>
       <c r="C3" t="n">
-        <v>116404.3089937633</v>
+        <v>136299.8567984787</v>
       </c>
       <c r="D3" t="n">
-        <v>201467.0771199072</v>
+        <v>256907.8640517732</v>
       </c>
       <c r="E3" t="n">
-        <v>167848.9823479689</v>
+        <v>205950.5105907905</v>
       </c>
       <c r="F3" t="n">
-        <v>194201.3323416269</v>
+        <v>245567.2664183341</v>
       </c>
       <c r="G3" t="n">
-        <v>180076.6009759074</v>
+        <v>224016.4287994656</v>
       </c>
       <c r="H3" t="n">
-        <v>191875.0988084723</v>
+        <v>241895.8371183538</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>20321.48368349356</v>
+        <v>19727.14315689267</v>
       </c>
       <c r="B4" t="n">
-        <v>17588.29189920048</v>
+        <v>17457.98706922538</v>
       </c>
       <c r="C4" t="n">
-        <v>14633.78427832509</v>
+        <v>14982.2427148563</v>
       </c>
       <c r="D4" t="n">
-        <v>8172.7875749269</v>
+        <v>9581.377160050173</v>
       </c>
       <c r="E4" t="n">
-        <v>7864.380760853341</v>
+        <v>9318.375989575648</v>
       </c>
       <c r="F4" t="inlineStr"/>
       <c r="G4" t="inlineStr"/>
